--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,13 @@
     <sheet name="オブジェクト情報" sheetId="9" r:id="rId3"/>
     <sheet name="カスタム項目" sheetId="4" r:id="rId4"/>
     <sheet name="入力規則" sheetId="6" r:id="rId5"/>
+    <sheet name="承認プロセス" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">オブジェクト情報!$A$1:$D$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">オブジェクト情報!$A$1:$D$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">カスタム項目!$A$1:$K$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$F$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力規則!$A$1:$D$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$18</definedName>
   </definedNames>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>API参照名</t>
     <rPh sb="3" eb="5">
@@ -179,6 +181,130 @@
   </si>
   <si>
     <t>■オブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認プロセス名</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始条件</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者の取り消し</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認割り当てメールテンプレート</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコードの編集</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認ページ表示項目</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請時アクション</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認ステップ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割当先</t>
+    <rPh sb="0" eb="2">
+      <t>ワリアテ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>却下時の処理</t>
+    <rPh sb="0" eb="2">
+      <t>キャッカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -186,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +372,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -298,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,6 +462,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -686,7 +823,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
@@ -1003,7 +1140,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1011,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
@@ -1070,7 +1207,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1079,7 +1216,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
@@ -1147,7 +1284,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1156,7 +1293,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
@@ -1191,6 +1328,114 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="31.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">オブジェクト情報!$A$1:$D$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">カスタム項目!$A$1:$K$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$F$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$F$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力規則!$A$1:$D$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$18</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>API参照名</t>
     <rPh sb="3" eb="5">
@@ -250,51 +250,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>申請時アクション</t>
-    <rPh sb="0" eb="2">
-      <t>シンセイ</t>
+    <t>承認ステップ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割当先</t>
+    <rPh sb="0" eb="2">
+      <t>ワリアテ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>却下時の処理</t>
+    <rPh sb="0" eb="2">
+      <t>キャッカ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>承認ステップ</t>
-    <rPh sb="0" eb="2">
-      <t>ショウニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラベル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>条件</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>割当先</t>
-    <rPh sb="0" eb="2">
-      <t>ワリアテ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>却下時の処理</t>
-    <rPh sb="0" eb="2">
-      <t>キャッカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
     </rPh>
@@ -304,6 +294,13 @@
     <t>種別</t>
     <rPh sb="0" eb="2">
       <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■承認プロセス</t>
+    <rPh sb="1" eb="3">
+      <t>ショウニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1334,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
@@ -1350,87 +1347,85 @@
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
+    <row r="1" spans="1:6" ht="24" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" customHeight="1">
+      <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1">
-      <c r="A11" s="10" t="s">
+    <row r="25" spans="1:2" ht="18" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">オブジェクト情報!$A$1:$D$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">カスタム項目!$A$1:$K$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$F$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$F$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力規則!$A$1:$D$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$18</definedName>
   </definedNames>
@@ -1331,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A31" sqref="A31:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
@@ -1352,80 +1352,86 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="12" spans="1:6" ht="18" customHeight="1">
       <c r="A12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" customHeight="1">
-      <c r="A24" s="10" t="s">
+    <row r="26" spans="1:2" ht="18" customHeight="1">
+      <c r="A26" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" customHeight="1">
-      <c r="A25" s="4" t="s">
+    <row r="27" spans="1:2" ht="18" customHeight="1">
+      <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">オブジェクト情報!$A$1:$D$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">カスタム項目!$A$1:$K$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$F$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$G$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力規則!$A$1:$D$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$18</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>API参照名</t>
     <rPh sb="3" eb="5">
@@ -300,6 +300,38 @@
   <si>
     <t>■承認プロセス</t>
     <rPh sb="1" eb="3">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請時のアクション</t>
+  </si>
+  <si>
+    <t>種別</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>レコードのロック</t>
+  </si>
+  <si>
+    <t>承認ステップ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代理承認</t>
+    <rPh sb="0" eb="2">
+      <t>ダイリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>ショウニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -309,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,8 +409,28 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +446,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3B689F"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B689F"/>
       </patternFill>
     </fill>
   </fills>
@@ -429,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +519,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1331,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A38"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
@@ -1342,96 +1414,127 @@
     <col min="1" max="1" width="31.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="21.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="21.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1">
+    <row r="1" spans="1:7" ht="24" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1">
-      <c r="A12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1">
-      <c r="A13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" customHeight="1">
-      <c r="A26" s="10" t="s">
+    <row r="27" spans="1:2" ht="18" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" customHeight="1">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:2" ht="18" customHeight="1">
+      <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="18" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="18" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="18" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="18" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="18" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="18" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">オブジェクト情報!$A$1:$D$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">カスタム項目!$A$1:$K$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$G$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$H$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力規則!$A$1:$D$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$18</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>API参照名</t>
     <rPh sb="3" eb="5">
@@ -184,154 +184,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>承認プロセス名</t>
-    <rPh sb="0" eb="2">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開始条件</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>申請者の取り消し</t>
-    <rPh sb="0" eb="3">
-      <t>シンセイシャ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>承認割り当てメールテンプレート</t>
-    <rPh sb="0" eb="2">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レコードの編集</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>承認ページ表示項目</t>
-    <rPh sb="0" eb="2">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>承認ステップ</t>
-    <rPh sb="0" eb="2">
-      <t>ショウニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラベル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>条件</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>割当先</t>
-    <rPh sb="0" eb="2">
-      <t>ワリアテ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>却下時の処理</t>
-    <rPh sb="0" eb="2">
-      <t>キャッカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>種別</t>
-    <rPh sb="0" eb="2">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■承認プロセス</t>
     <rPh sb="1" eb="3">
-      <t>ショウニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>申請時のアクション</t>
-  </si>
-  <si>
-    <t>種別</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>レコードのロック</t>
-  </si>
-  <si>
-    <t>承認ステップ</t>
-    <rPh sb="0" eb="2">
-      <t>ショウニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>代理承認</t>
-    <rPh sb="0" eb="2">
-      <t>ダイリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
       <t>ショウニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -341,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,28 +263,8 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,11 +280,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3B689F"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3B689F"/>
       </patternFill>
     </fill>
   </fills>
@@ -486,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,21 +348,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1403,139 +1217,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1">
+    <row r="1" spans="1:2" ht="24" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18" customHeight="1">
-      <c r="A27" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B1" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -15,11 +15,11 @@
     <sheet name="承認プロセス" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">オブジェクト情報!$A$1:$D$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">カスタム項目!$A$1:$K$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">オブジェクト情報!$A$1:$C$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">カスタム項目!$A$1:$K$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$H$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">入力規則!$A$1:$D$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">入力規則!$A$1:$D$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$18</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>API参照名</t>
     <rPh sb="3" eb="5">
@@ -176,10 +176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■レコードタイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■オブジェクト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -187,6 +183,37 @@
     <t>■承認プロセス</t>
     <rPh sb="1" eb="3">
       <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■入力規則</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■カスタム項目</t>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■レコードタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■改版履歴</t>
+    <rPh sb="1" eb="3">
+      <t>カイハン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -195,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,13 +256,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -315,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,13 +360,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,7 +683,7 @@
     <row r="1" spans="2:32" ht="18.75" customHeight="1"/>
     <row r="2" spans="2:32" ht="18.75" customHeight="1"/>
     <row r="3" spans="2:32" ht="41.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -682,12 +699,12 @@
     <row r="13" spans="2:32" ht="18.75" customHeight="1"/>
     <row r="14" spans="2:32" ht="18.75" customHeight="1"/>
     <row r="15" spans="2:32" ht="28.5" customHeight="1">
-      <c r="AF15" s="9" t="s">
+      <c r="AF15" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:32" ht="28.5" customHeight="1">
-      <c r="AF16" s="9"/>
+      <c r="AF16" s="8"/>
     </row>
     <row r="17" ht="18.75" customHeight="1"/>
     <row r="18" ht="18.75" customHeight="1"/>
@@ -703,10 +720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
@@ -720,33 +737,30 @@
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="24" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="2"/>
@@ -1019,6 +1033,14 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1029,63 +1051,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="33" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="B3" s="4" t="s">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="33" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
-      <c r="B8" s="4" t="s">
+    <row r="3" spans="1:3" ht="18" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+    <row r="8" spans="1:3" ht="18" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1096,11 +1116,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -1116,53 +1134,59 @@
     <col min="12" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="24" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="36.75" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+    <row r="3" spans="1:11" ht="18" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1173,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
@@ -1188,25 +1212,31 @@
     <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="24" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1220,7 +1250,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
@@ -1237,10 +1267,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,12 @@
     <sheet name="カスタム項目" sheetId="4" r:id="rId4"/>
     <sheet name="入力規則" sheetId="6" r:id="rId5"/>
     <sheet name="承認プロセス" sheetId="11" r:id="rId6"/>
+    <sheet name="ワークフローアクション" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">オブジェクト情報!$A$1:$C$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">カスタム項目!$A$1:$K$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">ワークフローアクション!$A$1:$F$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$H$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力規則!$A$1:$D$43</definedName>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>API参照名</t>
     <rPh sb="3" eb="5">
@@ -215,6 +217,39 @@
     <rPh sb="3" eb="5">
       <t>リレキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■メールアラート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールテンプレート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差出人</t>
+    <rPh sb="0" eb="2">
+      <t>サシダシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信者</t>
+    <rPh sb="0" eb="3">
+      <t>ジュシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■アウトバウンドメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EndpointURL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1200,7 +1235,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
@@ -1249,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1277,4 +1312,98 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51" style="1" customWidth="1"/>
+    <col min="7" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" customHeight="1"/>
+    <row r="6" spans="1:6" ht="24" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">オブジェクト情報!$A$1:$C$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">カスタム項目!$A$1:$K$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">ワークフローアクション!$A$1:$F$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">ワークフローアクション!$A$1:$F$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$H$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力規則!$A$1:$D$43</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>API参照名</t>
     <rPh sb="3" eb="5">
@@ -217,39 +217,6 @@
     <rPh sb="3" eb="5">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■メールアラート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールテンプレート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>差出人</t>
-    <rPh sb="0" eb="2">
-      <t>サシダシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受信者</t>
-    <rPh sb="0" eb="3">
-      <t>ジュシンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■アウトバウンドメッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EndpointURL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1316,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
@@ -1334,73 +1301,7 @@
     <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1"/>
-    <row r="6" spans="1:6" ht="24" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
+    <row r="1" ht="24" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -13,14 +13,16 @@
     <sheet name="カスタム項目" sheetId="4" r:id="rId4"/>
     <sheet name="入力規則" sheetId="6" r:id="rId5"/>
     <sheet name="承認プロセス" sheetId="11" r:id="rId6"/>
-    <sheet name="ワークフローアクション" sheetId="12" r:id="rId7"/>
+    <sheet name="ワークフロールール" sheetId="13" r:id="rId7"/>
+    <sheet name="ワークフローアクション" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">オブジェクト情報!$A$1:$C$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">カスタム項目!$A$1:$K$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">ワークフローアクション!$A$1:$F$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">ワークフローアクション!$A$1:$F$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">ワークフロールール!$A$1:$F$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$H$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$H$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力規則!$A$1:$D$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$18</definedName>
   </definedNames>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>API参照名</t>
     <rPh sb="3" eb="5">
@@ -217,6 +219,37 @@
     <rPh sb="3" eb="5">
       <t>リレキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ワークフロールール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>種別</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>評価条件</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリガータイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -224,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +318,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,8 +350,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B689F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6DDE8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -328,6 +384,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -337,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +449,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1251,9 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -1283,9 +1378,82 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="E2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -1217,7 +1217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -1226,8 +1228,8 @@
     <col min="3" max="3" width="28" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.25" style="1" customWidth="1"/>
+    <col min="6" max="7" width="33.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="1" customWidth="1"/>
     <col min="9" max="10" width="7.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="35.375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.875" style="1"/>
@@ -1299,15 +1301,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="76.25" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -1348,15 +1350,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="1" customWidth="1"/>
@@ -1380,7 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1388,7 +1392,7 @@
   <cols>
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="6" width="49.5" style="1" customWidth="1"/>

--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">オブジェクト情報!$A$1:$C$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">カスタム項目!$A$1:$K$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">ワークフローアクション!$A$1:$F$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">ワークフロールール!$A$1:$F$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$37</definedName>
@@ -1209,7 +1208,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1217,21 +1216,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="33.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.25" style="1" customWidth="1"/>
+    <col min="6" max="8" width="37.125" style="1" customWidth="1"/>
     <col min="9" max="10" width="7.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.5" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -1292,7 +1290,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1350,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">ワークフロールール!$A$1:$F$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$H$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">入力規則!$A$1:$D$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">入力規則!$A$1:$E$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$18</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>API参照名</t>
     <rPh sb="3" eb="5">
@@ -1216,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1296,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
@@ -1308,16 +1308,17 @@
     <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="57.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="76.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1">
+    <row r="1" spans="1:5" ht="24" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1330,17 +1331,21 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,10 @@
     <sheet name="ワークフローアクション" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">オブジェクト情報!$A$1:$C$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">ワークフローアクション!$A$1:$F$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">ワークフロールール!$A$1:$F$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$H$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">入力規則!$A$1:$E$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$18</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -1298,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
@@ -1387,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -18,7 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">ワークフローアクション!$A$1:$F$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">ワークフロールール!$A$1:$F$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$H$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$18</definedName>
@@ -1386,17 +1385,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -1450,7 +1449,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="ワークフローアクション" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">ワークフローアクション!$A$1:$F$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$H$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$18</definedName>
@@ -1384,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1457,18 +1456,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51" style="1" customWidth="1"/>
+    <col min="6" max="6" width="55.25" style="1" customWidth="1"/>
     <col min="7" max="8" width="21.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
@@ -1477,6 +1476,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/オブジェクト定義書.xlsx
+++ b/src/main/resources/template/オブジェクト定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$F$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">承認プロセス!$A$1:$H$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$18</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -765,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AF21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
@@ -1456,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
